--- a/Huimin/Variable_Analysis_11.07.xlsx
+++ b/Huimin/Variable_Analysis_11.07.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop2\Documents\Bootcamp\Kaggle-House-Prices\Huimin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D386B873-3388-4AA8-8FAE-2667BE945630}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D026AD2-119D-4852-AB19-E5C7845FEFEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62575EAA-3102-4243-B684-290054381A1F}"/>
+    <workbookView xWindow="-105" yWindow="1155" windowWidth="15570" windowHeight="11385" xr2:uid="{62575EAA-3102-4243-B684-290054381A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$F$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="136">
   <si>
     <t>categorical</t>
   </si>
@@ -435,10 +435,13 @@
     <t>categorical/ordinal?</t>
   </si>
   <si>
-    <t>numerical/</t>
-  </si>
-  <si>
     <t>ordinal/categorical</t>
+  </si>
+  <si>
+    <t>MissingValue</t>
+  </si>
+  <si>
+    <t>drop function</t>
   </si>
 </sst>
 </file>
@@ -961,10 +964,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6D78E1-BCBA-40BA-A99D-C281CEF30B87}">
-  <dimension ref="A1:I82"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="129" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +980,7 @@
     <col min="7" max="16384" width="16.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>98</v>
       </c>
@@ -1002,8 +1006,12 @@
         <v>93</v>
       </c>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1021,8 +1029,12 @@
       <c r="I2" s="24" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J2"/>
+      <c r="K2" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1044,7 +1056,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1062,7 +1074,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1086,7 +1098,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1110,7 +1122,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1130,7 +1142,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1154,7 +1166,7 @@
       </c>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1174,7 +1186,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1196,7 +1208,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1214,7 +1226,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1232,7 +1244,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1250,7 +1262,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1268,7 +1280,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1286,7 +1298,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1304,7 +1316,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1322,7 +1334,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1342,7 +1354,7 @@
       </c>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1364,7 +1376,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1386,7 +1398,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1406,7 +1418,7 @@
       </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1426,7 +1438,7 @@
       </c>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -1448,7 +1460,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1470,7 +1482,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -1492,7 +1504,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1560,7 +1572,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -1582,7 +1594,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -1602,7 +1614,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -1620,7 +1632,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -1640,7 +1652,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -1688,7 +1700,7 @@
       </c>
       <c r="H34" s="16"/>
     </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -1712,7 +1724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -1732,7 +1744,7 @@
       </c>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -1756,7 +1768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -1776,7 +1788,7 @@
       </c>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -1787,14 +1799,14 @@
         <v>1</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="14"/>
       <c r="G39" s="27"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -1814,7 +1826,7 @@
       </c>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -1832,7 +1844,7 @@
       <c r="G41" s="13"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -1850,7 +1862,7 @@
       <c r="G42" s="13"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -1870,7 +1882,7 @@
       </c>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -1892,7 +1904,7 @@
       </c>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -1910,7 +1922,7 @@
       <c r="G45" s="13"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -1928,7 +1940,7 @@
       <c r="G46" s="13"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -1946,7 +1958,7 @@
       <c r="G47" s="13"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -1966,7 +1978,7 @@
       </c>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -1986,7 +1998,7 @@
       </c>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -2006,7 +2018,7 @@
       </c>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -2026,7 +2038,7 @@
       </c>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -2046,7 +2058,7 @@
       </c>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -2064,7 +2076,7 @@
       <c r="G53" s="13"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -2082,7 +2094,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -2100,7 +2112,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -2120,7 +2132,7 @@
       </c>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -2138,7 +2150,7 @@
       <c r="G57" s="13"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -2156,7 +2168,7 @@
       <c r="G58" s="13"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -2178,7 +2190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -2202,7 +2214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -2224,7 +2236,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -2246,7 +2258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -2266,7 +2278,7 @@
       </c>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -2286,7 +2298,7 @@
       </c>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -2310,7 +2322,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -2334,7 +2346,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -2352,7 +2364,7 @@
       <c r="G67" s="13"/>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -2370,7 +2382,7 @@
       <c r="G68" s="13"/>
       <c r="H68" s="11"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -2388,7 +2400,7 @@
       <c r="G69" s="13"/>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -2406,7 +2418,7 @@
       <c r="G70" s="13"/>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -2424,7 +2436,7 @@
       <c r="G71" s="13"/>
       <c r="H71" s="11"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -2442,7 +2454,7 @@
       <c r="G72" s="13"/>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -2460,7 +2472,7 @@
       <c r="G73" s="13"/>
       <c r="H73" s="11"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -2480,7 +2492,7 @@
       <c r="G74" s="13"/>
       <c r="H74" s="11"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>74</v>
       </c>
@@ -2500,7 +2512,7 @@
       <c r="G75" s="13"/>
       <c r="H75" s="11"/>
     </row>
-    <row r="76" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -2522,7 +2534,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>76</v>
       </c>
@@ -2588,10 +2600,10 @@
         <v>85</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="14"/>
@@ -2620,7 +2632,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -2628,10 +2640,10 @@
         <v>87</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="14"/>
@@ -2639,7 +2651,18 @@
       <c r="H82" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F82" xr:uid="{AE415309-5D1E-4E06-A995-E399D58F3622}"/>
+  <autoFilter ref="A1:K82" xr:uid="{CF4CDAFE-58F0-4BEC-B603-2FBAADF9F560}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="categorical/ordinal?"/>
+        <filter val="categorical/Ordinal? Not sure. If exposure more, then price more. Then ordinal. Otherwise, categorical"/>
+        <filter val="date"/>
+        <filter val="if there is missing? It means it does not know the type. We can  look at the neighborhood then determine if what type it is."/>
+        <filter val="ordinal/categorical"/>
+        <filter val="use the average of the type average or median"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/Huimin/Variable_Analysis_11.07.xlsx
+++ b/Huimin/Variable_Analysis_11.07.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop2\Documents\Bootcamp\Kaggle-House-Prices\Huimin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D026AD2-119D-4852-AB19-E5C7845FEFEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338826DE-CDE9-4959-B720-1E257F318BF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="1155" windowWidth="15570" windowHeight="11385" xr2:uid="{62575EAA-3102-4243-B684-290054381A1F}"/>
+    <workbookView xWindow="0" yWindow="1155" windowWidth="22020" windowHeight="11385" xr2:uid="{62575EAA-3102-4243-B684-290054381A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="145">
   <si>
     <t>categorical</t>
   </si>
@@ -442,6 +442,33 @@
   </si>
   <si>
     <t>drop function</t>
+  </si>
+  <si>
+    <t>sale price, individual</t>
+  </si>
+  <si>
+    <t>multicolinearity</t>
+  </si>
+  <si>
+    <t>outliers</t>
+  </si>
+  <si>
+    <t>sales price to log so it is easier to see</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multi-linear model: assumption graphs. </t>
+  </si>
+  <si>
+    <t>column, column --</t>
+  </si>
+  <si>
+    <t>heatmap for correlation</t>
+  </si>
+  <si>
+    <t>hard to fit</t>
+  </si>
+  <si>
+    <t>dataclean</t>
   </si>
 </sst>
 </file>
@@ -560,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -650,6 +677,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -964,23 +994,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6D78E1-BCBA-40BA-A99D-C281CEF30B87}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="4"/>
     <col min="2" max="2" width="16.5703125" style="3"/>
-    <col min="3" max="4" width="16.5703125" style="4"/>
-    <col min="5" max="5" width="16.5703125" style="5"/>
-    <col min="7" max="16384" width="16.5703125" style="4"/>
+    <col min="3" max="5" width="16.5703125" style="4"/>
+    <col min="6" max="6" width="16.5703125" style="5"/>
+    <col min="8" max="16384" width="16.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>98</v>
       </c>
@@ -993,25 +1022,28 @@
       <c r="D1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1020,21 +1052,22 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="J2"/>
-      <c r="K2" s="1" t="s">
+      <c r="K2"/>
+      <c r="L2" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1047,16 +1080,19 @@
       <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="23" t="s">
+      <c r="E3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1069,12 +1105,15 @@
       <c r="D4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1088,17 +1127,23 @@
         <v>1</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1112,17 +1157,23 @@
         <v>1</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1135,14 +1186,20 @@
       <c r="D7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="13"/>
+      <c r="I7" s="11"/>
+      <c r="M7" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1155,18 +1212,24 @@
       <c r="D8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="11"/>
+      <c r="M8" s="33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1179,14 +1242,20 @@
       <c r="D9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="13"/>
+      <c r="I9" s="11"/>
+      <c r="M9" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1199,16 +1268,22 @@
       <c r="D10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="13"/>
+      <c r="I10" s="11"/>
+      <c r="M10" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1221,12 +1296,18 @@
       <c r="D11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="11"/>
+      <c r="M11" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1239,12 +1320,18 @@
       <c r="D12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="11"/>
+      <c r="M12" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1257,12 +1344,15 @@
       <c r="D13" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1275,12 +1365,15 @@
       <c r="D14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1293,12 +1386,15 @@
       <c r="D15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1311,12 +1407,15 @@
       <c r="D16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1329,12 +1428,15 @@
       <c r="D17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1347,14 +1449,17 @@
       <c r="D18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13" t="s">
+      <c r="E18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1367,16 +1472,19 @@
       <c r="D19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="23" t="s">
+      <c r="E19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1389,16 +1497,19 @@
       <c r="D20" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="23" t="s">
+      <c r="E20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1411,14 +1522,17 @@
       <c r="D21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="17" t="s">
+      <c r="E21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1431,14 +1545,17 @@
       <c r="D22" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="17" t="s">
+      <c r="E22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -1451,16 +1568,19 @@
       <c r="D23" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14" t="s">
+      <c r="E23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="11"/>
+      <c r="I23" s="23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1473,16 +1593,19 @@
       <c r="D24" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14" t="s">
+      <c r="E24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="11"/>
+      <c r="I24" s="23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -1495,16 +1618,19 @@
       <c r="D25" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14" t="s">
+      <c r="E25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="11"/>
+      <c r="I25" s="23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1517,16 +1643,19 @@
       <c r="D26" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14" t="s">
+      <c r="E26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="11"/>
+      <c r="I26" s="23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -1539,18 +1668,21 @@
       <c r="D27" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="G27" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="16"/>
+      <c r="I27" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1563,16 +1695,19 @@
       <c r="D28" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="11" t="s">
+      <c r="G28" s="14"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -1585,16 +1720,19 @@
       <c r="D29" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="14">
-        <v>0</v>
-      </c>
-      <c r="G29" s="11"/>
+      <c r="G29" s="14">
+        <v>0</v>
+      </c>
       <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -1607,14 +1745,17 @@
       <c r="D30" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14">
-        <v>0</v>
-      </c>
-      <c r="G30" s="11"/>
+      <c r="E30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14">
+        <v>0</v>
+      </c>
       <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -1627,12 +1768,15 @@
       <c r="D31" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="11"/>
+      <c r="E31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -1645,14 +1789,17 @@
       <c r="D32" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="14"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -1665,18 +1812,21 @@
       <c r="D33" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="G33" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="26"/>
+      <c r="I33" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -1689,18 +1839,21 @@
       <c r="D34" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="14">
-        <v>0</v>
-      </c>
-      <c r="G34" s="28" t="s">
+      <c r="G34" s="14">
+        <v>0</v>
+      </c>
+      <c r="H34" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -1713,18 +1866,21 @@
       <c r="D35" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="14">
-        <v>0</v>
-      </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="16" t="s">
+      <c r="G35" s="14">
+        <v>0</v>
+      </c>
+      <c r="H35" s="27"/>
+      <c r="I35" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -1737,14 +1893,17 @@
       <c r="D36" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="25" t="s">
+      <c r="E36" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -1757,18 +1916,21 @@
       <c r="D37" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="14">
-        <v>0</v>
-      </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="16" t="s">
+      <c r="G37" s="14">
+        <v>0</v>
+      </c>
+      <c r="H37" s="27"/>
+      <c r="I37" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -1781,14 +1943,17 @@
       <c r="D38" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="25" t="s">
+      <c r="E38" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -1801,12 +1966,15 @@
       <c r="D39" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -1819,14 +1987,17 @@
       <c r="D40" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="25" t="s">
+      <c r="E40" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -1839,12 +2010,15 @@
       <c r="D41" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -1857,12 +2031,15 @@
       <c r="D42" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -1875,14 +2052,17 @@
       <c r="D43" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="13" t="s">
+      <c r="E43" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -1895,16 +2075,19 @@
       <c r="D44" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="14"/>
+      <c r="H44" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -1917,12 +2100,15 @@
       <c r="D45" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -1935,12 +2121,15 @@
       <c r="D46" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -1953,12 +2142,15 @@
       <c r="D47" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -1971,14 +2163,17 @@
       <c r="D48" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="13" t="s">
+      <c r="E48" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -1991,14 +2186,17 @@
       <c r="D49" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="13" t="s">
+      <c r="E49" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="13"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="11"/>
+    </row>
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -2011,14 +2209,17 @@
       <c r="D50" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="13" t="s">
+      <c r="E50" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="51" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -2031,14 +2232,17 @@
       <c r="D51" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="13" t="s">
+      <c r="E51" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="H51" s="11"/>
-    </row>
-    <row r="52" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="11"/>
+    </row>
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -2051,14 +2255,17 @@
       <c r="D52" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="13" t="s">
+      <c r="E52" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="H52" s="11"/>
-    </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -2071,12 +2278,15 @@
       <c r="D53" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="11"/>
-    </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E53" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -2089,12 +2299,15 @@
       <c r="D54" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="11"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -2107,12 +2320,15 @@
       <c r="D55" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="13"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="11"/>
+    </row>
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -2125,14 +2341,17 @@
       <c r="D56" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="13" t="s">
+      <c r="E56" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="13"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="H56" s="11"/>
-    </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="11"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -2145,12 +2364,15 @@
       <c r="D57" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="11"/>
-    </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="13"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="11"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -2163,12 +2385,15 @@
       <c r="D58" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="11"/>
-    </row>
-    <row r="59" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E58" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="13"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="11"/>
+    </row>
+    <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -2181,16 +2406,19 @@
       <c r="D59" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13" t="s">
+      <c r="G59" s="14"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -2203,18 +2431,21 @@
       <c r="D60" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="G60" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13" t="s">
+      <c r="H60" s="13"/>
+      <c r="I60" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -2228,15 +2459,18 @@
         <v>1</v>
       </c>
       <c r="E61" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F61" s="29" t="s">
+      <c r="G61" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="13"/>
+      <c r="I61" s="11"/>
+    </row>
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -2249,16 +2483,19 @@
       <c r="D62" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F62" s="14"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16" t="s">
+      <c r="G62" s="14"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -2271,14 +2508,17 @@
       <c r="D63" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="13" t="s">
+      <c r="E63" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="13"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="H63" s="11"/>
-    </row>
-    <row r="64" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="11"/>
+    </row>
+    <row r="64" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -2291,14 +2531,17 @@
       <c r="D64" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="13" t="s">
+      <c r="E64" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="13"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="H64" s="11"/>
-    </row>
-    <row r="65" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="11"/>
+    </row>
+    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -2311,18 +2554,21 @@
       <c r="D65" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F65" s="14"/>
-      <c r="G65" s="16">
-        <v>0</v>
-      </c>
-      <c r="H65" s="16" t="s">
+      <c r="G65" s="14"/>
+      <c r="H65" s="16">
+        <v>0</v>
+      </c>
+      <c r="I65" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -2335,18 +2581,21 @@
       <c r="D66" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F66" s="14"/>
-      <c r="G66" s="13">
-        <v>0</v>
-      </c>
-      <c r="H66" s="16" t="s">
+      <c r="G66" s="14"/>
+      <c r="H66" s="13">
+        <v>0</v>
+      </c>
+      <c r="I66" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -2359,12 +2608,15 @@
       <c r="D67" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="11"/>
-    </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E67" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="13"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="11"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -2377,12 +2629,15 @@
       <c r="D68" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="11"/>
-    </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E68" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" s="13"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="11"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -2395,12 +2650,15 @@
       <c r="D69" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="11"/>
-    </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="13"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="11"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -2413,12 +2671,15 @@
       <c r="D70" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" s="13"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="11"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -2431,12 +2692,15 @@
       <c r="D71" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" s="13"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="11"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -2449,12 +2713,15 @@
       <c r="D72" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="11"/>
-    </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" s="13"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="11"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -2467,12 +2734,15 @@
       <c r="D73" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="11"/>
-    </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E73" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" s="13"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="11"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -2485,14 +2755,17 @@
       <c r="D74" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="11"/>
-    </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G74" s="21"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="11"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>74</v>
       </c>
@@ -2505,14 +2778,17 @@
       <c r="D75" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="14"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="11"/>
-    </row>
-    <row r="76" spans="1:8" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="14"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="11"/>
+    </row>
+    <row r="76" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -2525,16 +2801,19 @@
       <c r="D76" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="E76" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F76" s="14"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="28" t="s">
+      <c r="G76" s="14"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="28" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>76</v>
       </c>
@@ -2547,12 +2826,15 @@
       <c r="D77" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="11"/>
-    </row>
-    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E77" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" s="13"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="11"/>
+    </row>
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -2565,14 +2847,17 @@
       <c r="D78" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E78" s="27"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="30" t="s">
+      <c r="E78" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" s="27"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="30" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>78</v>
       </c>
@@ -2585,14 +2870,17 @@
       <c r="D79" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="27"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="30" t="s">
+      <c r="E79" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" s="27"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="30" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -2605,14 +2893,17 @@
       <c r="D80" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="11" t="s">
+      <c r="E80" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="13"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>80</v>
       </c>
@@ -2625,14 +2916,17 @@
       <c r="D81" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E81" s="13"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="11" t="s">
+      <c r="E81" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" s="13"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -2645,24 +2939,16 @@
       <c r="D82" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E82" s="13"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="11"/>
+      <c r="E82" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" s="13"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K82" xr:uid="{CF4CDAFE-58F0-4BEC-B603-2FBAADF9F560}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="categorical/ordinal?"/>
-        <filter val="categorical/Ordinal? Not sure. If exposure more, then price more. Then ordinal. Otherwise, categorical"/>
-        <filter val="date"/>
-        <filter val="if there is missing? It means it does not know the type. We can  look at the neighborhood then determine if what type it is."/>
-        <filter val="ordinal/categorical"/>
-        <filter val="use the average of the type average or median"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L82" xr:uid="{CF4CDAFE-58F0-4BEC-B603-2FBAADF9F560}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
